--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200216.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200216.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\疫情大数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3B46B6-FBC0-444A-A916-DB74B08F3203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC809A25-8804-4340-AED3-8A78F3DB1878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9307" uniqueCount="3292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9326" uniqueCount="3294">
   <si>
     <t>统计级别</t>
   </si>
@@ -10285,6 +10285,14 @@
   </si>
   <si>
     <t>http://wjw.hubei.gov.cn/fbjd/dtyw/202002/t20200217_2039346.shtml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10771,20 +10779,16 @@
   <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.84375" style="13" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.84375" style="13" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.84375" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.84375" style="13" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="4.61328125" style="13" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3046875" style="13" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="14.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.84375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3046875" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.61328125" style="13" customWidth="1"/>
     <col min="8" max="8" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
@@ -10938,11 +10942,9 @@
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B2" s="14">
-        <v>43878</v>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C2" s="14">
         <v>43877</v>
@@ -11003,11 +11005,9 @@
       <c r="AJ2" s="15"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B3" s="14">
-        <v>43878</v>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C3" s="14">
         <v>43877</v>
@@ -11059,11 +11059,9 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B4" s="14">
-        <v>43878</v>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C4" s="14">
         <v>43877</v>
@@ -11115,11 +11113,9 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B5" s="14">
-        <v>43878</v>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C5" s="14">
         <v>43877</v>
@@ -11171,11 +11167,9 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B6" s="14">
-        <v>43878</v>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C6" s="14">
         <v>43877</v>
@@ -11227,11 +11221,9 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B7" s="14">
-        <v>43878</v>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C7" s="14">
         <v>43877</v>
@@ -11283,11 +11275,9 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B8" s="14">
-        <v>43878</v>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C8" s="14">
         <v>43877</v>
@@ -11339,11 +11329,9 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B9" s="14">
-        <v>43878</v>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C9" s="14">
         <v>43877</v>
@@ -11395,11 +11383,9 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B10" s="14">
-        <v>43878</v>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C10" s="14">
         <v>43877</v>
@@ -11451,11 +11437,9 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B11" s="14">
-        <v>43878</v>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C11" s="14">
         <v>43877</v>
@@ -11507,11 +11491,9 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B12" s="14">
-        <v>43878</v>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C12" s="14">
         <v>43877</v>
@@ -11563,11 +11545,9 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B13" s="14">
-        <v>43878</v>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C13" s="14">
         <v>43877</v>
@@ -11616,11 +11596,9 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B14" s="14">
-        <v>43878</v>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C14" s="14">
         <v>43877</v>
@@ -11672,11 +11650,9 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B15" s="14">
-        <v>43878</v>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C15" s="14">
         <v>43877</v>
@@ -11725,11 +11701,9 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B16" s="14">
-        <v>43878</v>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C16" s="14">
         <v>43877</v>
@@ -11778,11 +11752,9 @@
       </c>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B17" s="14">
-        <v>43878</v>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C17" s="14">
         <v>43877</v>
@@ -11831,11 +11803,9 @@
       </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B18" s="14">
-        <v>43878</v>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C18" s="14">
         <v>43877</v>
@@ -11875,11 +11845,9 @@
       </c>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B19" s="14">
-        <v>43878</v>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>3292</v>
       </c>
       <c r="C19" s="14">
         <v>43877</v>
@@ -11917,11 +11885,9 @@
       </c>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="14">
-        <v>43877</v>
-      </c>
-      <c r="B20" s="14">
-        <v>43878</v>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>3293</v>
       </c>
       <c r="C20" s="14">
         <v>43877</v>
